--- a/uploads/uploaded/excel.xlsx
+++ b/uploads/uploaded/excel.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\worklog\uploads\uploaded\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFF86B-82DA-4EBC-BB84-8035EA9AC79A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="285">
   <si>
     <t>Summary</t>
   </si>
@@ -719,9 +724,6 @@
     <t>Excluding price order;06/Feb/20 4:00 PM;ferdi.tatlisu;28800</t>
   </si>
   <si>
-    <t>Do only priceOrder in Online Payment;07/Feb/20 6:44 PM;ferdi.tatlisu;28800</t>
-  </si>
-  <si>
     <t>37%</t>
   </si>
   <si>
@@ -1039,18 +1041,16 @@
 Please approve the flow. Also, the task can be check at [https://dpr-staging.dominos.com.tr|https://dpr-staging.dominos.com.tr] or [https://dprstage.ru|https://dprstage.ru]
 </t>
   </si>
+  <si>
+    <t>Do only priceOrder in Online Payment;10/Feb/20 6:44 PM;ferdi.tatlisu;28800</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1061,28 +1061,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1372,19 +1381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:155">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:155">
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:155">
+    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>192</v>
       </c>
       <c r="AO3" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="BE3">
         <v>288000</v>
@@ -2254,7 +2260,7 @@
         <v>108000</v>
       </c>
       <c r="BH3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BI3">
         <v>288000</v>
@@ -2266,30 +2272,30 @@
         <v>108000</v>
       </c>
       <c r="BR3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="CB3" t="s">
         <v>135</v>
       </c>
       <c r="CD3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI3" t="s">
         <v>196</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>197</v>
       </c>
       <c r="CO3">
         <v>3</v>
       </c>
       <c r="CP3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="4" spans="1:155">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" t="s">
-        <v>200</v>
       </c>
       <c r="C4">
         <v>18081</v>
@@ -2298,7 +2304,7 @@
         <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
         <v>91</v>
@@ -2316,7 +2322,7 @@
         <v>182</v>
       </c>
       <c r="O4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P4" t="s">
         <v>109</v>
@@ -2325,13 +2331,13 @@
         <v>109</v>
       </c>
       <c r="R4" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" t="s">
         <v>203</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>204</v>
-      </c>
-      <c r="T4" t="s">
-        <v>205</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -2340,22 +2346,22 @@
         <v>103</v>
       </c>
       <c r="Z4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA4" t="s">
         <v>206</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>207</v>
       </c>
       <c r="AD4" t="s">
         <v>109</v>
       </c>
       <c r="AK4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL4" t="s">
         <v>208</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>209</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>210</v>
       </c>
       <c r="BE4">
         <v>288000</v>
@@ -2367,7 +2373,7 @@
         <v>79200</v>
       </c>
       <c r="BH4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BI4">
         <v>288000</v>
@@ -2385,21 +2391,21 @@
         <v>135</v>
       </c>
       <c r="CI4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CO4">
         <v>1</v>
       </c>
       <c r="CP4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="5" spans="1:155">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
       </c>
       <c r="C5">
         <v>17981</v>
@@ -2408,10 +2414,10 @@
         <v>16386</v>
       </c>
       <c r="E5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" t="s">
         <v>216</v>
-      </c>
-      <c r="F5" t="s">
-        <v>217</v>
       </c>
       <c r="G5" t="s">
         <v>91</v>
@@ -2429,7 +2435,7 @@
         <v>182</v>
       </c>
       <c r="O5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P5" t="s">
         <v>109</v>
@@ -2438,13 +2444,13 @@
         <v>109</v>
       </c>
       <c r="R5" t="s">
+        <v>218</v>
+      </c>
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>220</v>
-      </c>
-      <c r="T5" t="s">
-        <v>221</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -2453,37 +2459,37 @@
         <v>187</v>
       </c>
       <c r="Z5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB5" t="s">
         <v>222</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>223</v>
       </c>
       <c r="AD5" t="s">
         <v>109</v>
       </c>
       <c r="AK5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL5" t="s">
         <v>224</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>225</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>226</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>227</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>228</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>229</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>230</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>231</v>
       </c>
       <c r="BE5">
         <v>201600</v>
@@ -2495,7 +2501,7 @@
         <v>165600</v>
       </c>
       <c r="BH5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BI5">
         <v>201600</v>
@@ -2507,33 +2513,33 @@
         <v>165600</v>
       </c>
       <c r="BR5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="CB5" t="s">
         <v>135</v>
       </c>
       <c r="CI5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CO5">
         <v>0</v>
       </c>
       <c r="CP5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="EX5">
         <v>16386</v>
       </c>
       <c r="EY5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="1:155">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>237</v>
       </c>
       <c r="C6">
         <v>18092</v>
@@ -2560,7 +2566,7 @@
         <v>182</v>
       </c>
       <c r="O6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P6" t="s">
         <v>109</v>
@@ -2569,13 +2575,13 @@
         <v>109</v>
       </c>
       <c r="R6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>240</v>
-      </c>
-      <c r="T6" t="s">
-        <v>241</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2584,10 +2590,10 @@
         <v>103</v>
       </c>
       <c r="Z6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AD6" t="s">
         <v>109</v>
@@ -2596,10 +2602,10 @@
         <v>110</v>
       </c>
       <c r="AK6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL6" t="s">
         <v>243</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>244</v>
       </c>
       <c r="BE6">
         <v>57600</v>
@@ -2611,7 +2617,7 @@
         <v>57600</v>
       </c>
       <c r="BH6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BI6">
         <v>57600</v>
@@ -2629,27 +2635,27 @@
         <v>135</v>
       </c>
       <c r="CI6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="CO6">
         <v>1</v>
       </c>
       <c r="CP6" t="s">
+        <v>246</v>
+      </c>
+      <c r="DI6" t="s">
         <v>247</v>
       </c>
-      <c r="DI6" t="s">
+      <c r="DJ6" t="s">
         <v>248</v>
       </c>
-      <c r="DJ6" t="s">
+    </row>
+    <row r="7" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="1:155">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>251</v>
       </c>
       <c r="C7">
         <v>18008</v>
@@ -2658,7 +2664,7 @@
         <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" t="s">
         <v>91</v>
@@ -2685,37 +2691,37 @@
         <v>109</v>
       </c>
       <c r="R7" t="s">
+        <v>252</v>
+      </c>
+      <c r="S7" t="s">
         <v>253</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>254</v>
-      </c>
-      <c r="T7" t="s">
-        <v>255</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z7" t="s">
         <v>103</v>
       </c>
       <c r="AB7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD7" t="s">
         <v>109</v>
       </c>
       <c r="AE7" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK7" t="s">
         <v>258</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>259</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>260</v>
       </c>
       <c r="BE7">
         <v>86400</v>
@@ -2727,7 +2733,7 @@
         <v>21600</v>
       </c>
       <c r="BH7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI7">
         <v>86400</v>
@@ -2739,7 +2745,7 @@
         <v>21600</v>
       </c>
       <c r="BM7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BR7" t="s">
         <v>134</v>
@@ -2748,51 +2754,51 @@
         <v>135</v>
       </c>
       <c r="CD7" t="s">
+        <v>262</v>
+      </c>
+      <c r="CI7" t="s">
         <v>263</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>264</v>
       </c>
       <c r="CO7">
         <v>0</v>
       </c>
       <c r="CP7" t="s">
+        <v>264</v>
+      </c>
+      <c r="DI7" t="s">
         <v>265</v>
       </c>
-      <c r="DI7" t="s">
+      <c r="DJ7" t="s">
         <v>266</v>
       </c>
-      <c r="DJ7" t="s">
+      <c r="DK7" t="s">
         <v>267</v>
       </c>
-      <c r="DK7" t="s">
+      <c r="DL7" t="s">
         <v>268</v>
       </c>
-      <c r="DL7" t="s">
+      <c r="DM7" t="s">
         <v>269</v>
       </c>
-      <c r="DM7" t="s">
+      <c r="DN7" t="s">
         <v>270</v>
       </c>
-      <c r="DN7" t="s">
+    </row>
+    <row r="8" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:155">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>272</v>
-      </c>
-      <c r="B8" t="s">
-        <v>273</v>
       </c>
       <c r="C8">
         <v>16234</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G8" t="s">
         <v>91</v>
@@ -2807,7 +2813,7 @@
         <v>94</v>
       </c>
       <c r="M8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" t="s">
         <v>110</v>
@@ -2819,19 +2825,19 @@
         <v>94</v>
       </c>
       <c r="R8" t="s">
+        <v>275</v>
+      </c>
+      <c r="S8" t="s">
         <v>276</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>277</v>
-      </c>
-      <c r="T8" t="s">
-        <v>278</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD8" t="s">
         <v>94</v>
@@ -2840,7 +2846,7 @@
         <v>110</v>
       </c>
       <c r="AK8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BE8">
         <v>10800</v>
@@ -2852,7 +2858,7 @@
         <v>10800</v>
       </c>
       <c r="BH8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BI8">
         <v>10800</v>
@@ -2870,33 +2876,23 @@
         <v>135</v>
       </c>
       <c r="CN8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="CO8">
         <v>9</v>
       </c>
       <c r="CP8" t="s">
+        <v>281</v>
+      </c>
+      <c r="DI8" t="s">
         <v>282</v>
       </c>
-      <c r="DI8" t="s">
+      <c r="DJ8" t="s">
         <v>283</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>